--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_LSPMW_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_LSPMW_Lineal_Estacionario_ARMA.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-1.435797849908394</v>
+        <v>-1.320381201085663</v>
       </c>
       <c r="D2">
-        <v>0.151246143858849</v>
+        <v>0.2002806244740265</v>
       </c>
       <c r="E2">
         <v>0.7703531803956298</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-1.030230302840393</v>
+        <v>-1.06530972133658</v>
       </c>
       <c r="D3">
-        <v>0.3030502895343603</v>
+        <v>0.2982885416684207</v>
       </c>
       <c r="E3">
         <v>0.7703531803956298</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-1.490754481552045</v>
+        <v>-1.740115359088417</v>
       </c>
       <c r="D4">
-        <v>0.1362138022205492</v>
+        <v>0.09581090626266353</v>
       </c>
       <c r="E4">
         <v>0.7703531803956298</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-0.1849756119609151</v>
+        <v>-0.1946396896434873</v>
       </c>
       <c r="D5">
-        <v>0.8532705047556233</v>
+        <v>0.8474612439213363</v>
       </c>
       <c r="E5">
         <v>0.7703531803956298</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.5925029917715949</v>
+        <v>0.5084019544517114</v>
       </c>
       <c r="D6">
-        <v>0.5535936025378601</v>
+        <v>0.6162318480661122</v>
       </c>
       <c r="E6">
         <v>0.8145475106840209</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>0.04222021652756684</v>
+        <v>0.0373147151087913</v>
       </c>
       <c r="D7">
-        <v>0.9663281664711172</v>
+        <v>0.970570602629377</v>
       </c>
       <c r="E7">
         <v>0.8145475106840209</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>1.195701315289088</v>
+        <v>0.9436313984451751</v>
       </c>
       <c r="D8">
-        <v>0.2319819795879354</v>
+        <v>0.3556064935840384</v>
       </c>
       <c r="E8">
         <v>0.8145475106840209</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-0.5272507025527665</v>
+        <v>-0.6414055482783612</v>
       </c>
       <c r="D9">
-        <v>0.598089160812461</v>
+        <v>0.5278856723302827</v>
       </c>
       <c r="E9">
         <v>0.797229504246307</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>0.8009565513375769</v>
+        <v>0.773720528572617</v>
       </c>
       <c r="D10">
-        <v>0.4232701247050619</v>
+        <v>0.4473310495342027</v>
       </c>
       <c r="E10">
         <v>0.797229504246307</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>1.189542185238128</v>
+        <v>1.542280599425229</v>
       </c>
       <c r="D11">
-        <v>0.2343945682683999</v>
+        <v>0.1372680417437044</v>
       </c>
       <c r="E11">
         <v>0.8131617621483591</v>
